--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_6_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_6_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.89000000000061</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.329277987682786e-08</v>
+        <v>5.366994626498922e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>1.329277987682786e-08</v>
+        <v>5.366994626498922e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.525247452888</v>
+        <v>50.50856290803106</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[30.437087285335693, 58.61340762044031]</t>
+          <t>[35.40122319409092, 65.6159026219712]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.936333317777212e-08</v>
+        <v>2.531835985308817e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>8.936333317777212e-08</v>
+        <v>2.531835985308817e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.427710775505272</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 1.7925003128590422]</t>
+          <t>[0.9622896416401163, 1.641552918091965]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.108320433322433e-10</v>
+        <v>8.815312924070895e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>5.108320433322433e-10</v>
+        <v>8.815312924070895e-10</v>
       </c>
       <c r="T2" t="n">
-        <v>48.56259398619787</v>
+        <v>52.33142187738425</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[39.819071056473135, 57.3061169159226]</t>
+          <t>[43.63697616769609, 61.02586758707241]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.376676550535194e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>1.376676550535194e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X2" t="n">
-        <v>20.00708708708756</v>
+        <v>20.40648648648695</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5039639639644</v>
+        <v>19.01513513513556</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.51021021021072</v>
+        <v>21.79783783783833</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.89000000000061</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.553635651356359e-08</v>
+        <v>4.100215410529628e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>5.553635651356359e-08</v>
+        <v>4.100215410529628e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>46.67966788343223</v>
+        <v>38.54328815858999</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[30.10294323535952, 63.25639253150494]</t>
+          <t>[22.366430341809313, 54.72014597537066]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>9.567087424500187e-07</v>
+        <v>1.791740721079904e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>9.567087424500187e-07</v>
+        <v>1.791740721079904e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.201289683354655</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7861843477451931, 1.6163950189641163]</t>
+          <t>[0.5346053564667317, 1.389973926813501]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.604194521779959e-07</v>
+        <v>4.294577757657514e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>5.604194521779959e-07</v>
+        <v>4.294577757657514e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>51.40781642691617</v>
+        <v>50.81910133076473</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.844234867977825, 60.971397985854516]</t>
+          <t>[42.34382218729834, 59.29438047423112]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.063416270128073e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>4.063416270128073e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X3" t="n">
-        <v>20.94006006006056</v>
+        <v>21.79783783783834</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.22960960961007</v>
+        <v>20.04576576576623</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.65051051051104</v>
+        <v>23.54990990991045</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.89000000000061</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.094091091588759e-06</v>
+        <v>3.898565914539631e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>4.094091091588759e-06</v>
+        <v>3.898565914539631e-10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>36.58183379012071</v>
+        <v>48.25333608828575</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.127336530241415, 54.03633105000001]</t>
+          <t>[33.41082122160226, 63.09585095496924]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0001163806500192877</v>
+        <v>4.784588170103632e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001163806500192877</v>
+        <v>4.784588170103632e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8365001460008861</v>
+        <v>0.5471843060306538</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 1.2767633807381946]</t>
+          <t>[0.2201316173686534, 0.8742369946926543]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.001552041633658074</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.001552041633658074</v>
       </c>
       <c r="T4" t="n">
-        <v>52.22757611325941</v>
+        <v>48.75694948006571</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.318482798070136, 61.136669428448684]</t>
+          <t>[40.94785249554242, 56.56604646458901]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>22.44318318318371</v>
+        <v>23.49837837837892</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.62906906906955</v>
+        <v>22.15855855855906</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.25729729729787</v>
+        <v>24.83819819819877</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.89000000000061</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.08940414967185e-06</v>
+        <v>2.153034861507308e-09</v>
       </c>
       <c r="I5" t="n">
-        <v>5.08940414967185e-06</v>
+        <v>2.153034861507308e-09</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.82682130051541</v>
+        <v>50.18317798870523</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[22.706394410772383, 54.94724819025843]</t>
+          <t>[36.31808481093984, 64.04827116647063]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.50793701207963e-05</v>
+        <v>3.794959901881612e-09</v>
       </c>
       <c r="O5" t="n">
-        <v>1.50793701207963e-05</v>
+        <v>3.794959901881612e-09</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1446579199851152</v>
+        <v>0.05660527303765317</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.3333421634439624, 0.6226580034141929]</t>
+          <t>[-0.24528951649650121, 0.35850006257180755]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.5452378486832412</v>
+        <v>0.707470188884729</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5452378486832412</v>
+        <v>0.707470188884729</v>
       </c>
       <c r="T5" t="n">
-        <v>53.06289795018258</v>
+        <v>57.84067803251938</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.70494917717716, 62.420846723188]</t>
+          <t>[49.21244154028728, 66.46891452475148]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>25.29393393393453</v>
+        <v>25.50810810810869</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.32432432432487</v>
+        <v>24.2713513513519</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.26354354354418</v>
+        <v>26.74486486486548</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.89000000000061</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.947819083802926e-08</v>
+        <v>1.28864356963021e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>1.947819083802926e-08</v>
+        <v>1.28864356963021e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>38.93378399680118</v>
+        <v>41.85761250404533</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.394116157764515, 51.47345183583785]</t>
+          <t>[27.968237317806462, 55.74698769028419]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.31159676453052e-07</v>
+        <v>2.459546188937622e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31159676453052e-07</v>
+        <v>2.459546188937622e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2264210921506153</v>
+        <v>-0.3018947895341544</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 0.15094739476707808]</t>
+          <t>[-0.6666843268879239, 0.06289474781961513]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.2331817098504838</v>
+        <v>0.1024917190848524</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2331817098504838</v>
+        <v>0.1024917190848524</v>
       </c>
       <c r="T6" t="n">
-        <v>50.46879386583072</v>
+        <v>55.18228734647997</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.06251350334522, 57.875074228316215]</t>
+          <t>[47.313726850762464, 63.050847842197484]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9329729729729905</v>
+        <v>1.236756756756787</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.6219819819820034</v>
+        <v>-0.2576576576576606</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.487927927927984</v>
+        <v>2.731171171171234</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.89000000000061</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.625512443709681e-10</v>
+        <v>7.085632081071935e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>7.625512443709681e-10</v>
+        <v>7.085632081071935e-11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>45.58097751695835</v>
+        <v>50.91236623575336</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[29.960776505107134, 61.201178528809564]</t>
+          <t>[35.33042117092147, 66.49431130058525]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.74761519431155e-07</v>
+        <v>4.273584752745307e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>4.74761519431155e-07</v>
+        <v>4.273584752745307e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.767315923399309</v>
+        <v>-0.8050527720910781</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1069475616252324, -0.4276842851733855]</t>
+          <t>[-1.1069475616252324, -0.5031579825569237]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.042160194650535e-05</v>
+        <v>2.650989207486631e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>4.042160194650535e-05</v>
+        <v>2.650989207486631e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>53.61860358105719</v>
+        <v>57.24190545364622</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.635993445090925, 61.60121371702345]</t>
+          <t>[49.060036269055985, 65.42377463823645]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.161741741741817</v>
+        <v>3.298018018018091</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.762282282282325</v>
+        <v>2.061261261261306</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.561201201201309</v>
+        <v>4.534774774774876</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.89000000000061</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.802437120725699e-08</v>
+        <v>3.684893168376391e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>3.802437120725699e-08</v>
+        <v>3.684893168376391e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>41.26042642941722</v>
+        <v>43.87115152518768</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[25.671746102959304, 56.84910675587514]</t>
+          <t>[28.773134972890993, 58.969168077484376]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.033708146249481e-06</v>
+        <v>5.167211321044363e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>3.033708146249481e-06</v>
+        <v>5.167211321044363e-07</v>
       </c>
       <c r="P8" t="n">
         <v>-1.144684410317002</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.559789745926464, -0.729579074707539]</t>
+          <t>[-1.522052897234694, -0.767315923399309]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.426584216979165e-06</v>
+        <v>2.147505147043205e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.426584216979165e-06</v>
+        <v>2.147505147043205e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>52.35946541679471</v>
+        <v>59.29321709967545</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.79731415928538, 60.92161667430405]</t>
+          <t>[51.031285072570014, 67.55514912678088]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.716696696696808</v>
+        <v>4.689369369369476</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.006246246246316</v>
+        <v>3.143423423423497</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.427147147147299</v>
+        <v>6.235315315315456</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,57 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.43000000000007</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.722297411585146e-10</v>
+        <v>4.918232487938212e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>9.722297411585146e-10</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>4.918232487938212e-11</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2987894557045725</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2987894557045725</v>
+      </c>
       <c r="L9" t="n">
-        <v>48.67001008915428</v>
+        <v>50.71023789241919</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[33.51981317152619, 63.820207006782375]</t>
+          <t>[35.91169345815594, 65.50878232668244]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.241142069818295e-08</v>
+        <v>1.425450379954896e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>6.241142069818295e-08</v>
+        <v>1.425450379954896e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.924579283280234</v>
+        <v>-2.138421425866927</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.251631971942235, -1.5975265946182322]</t>
+          <t>[-2.4403162154010807, -1.8365266363327728]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>57.48336067953471</v>
+        <v>53.70655093573375</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.31551625203963, 65.6512051070298]</t>
+          <t>[46.046334059799044, 61.36676781166846]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.870450450450472</v>
+        <v>7.487487487487488</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.702922922922937</v>
+        <v>6.430430430430432</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.037977977978006</v>
+        <v>8.544544544544545</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1273,57 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.43000000000007</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.987952885113998e-09</v>
+        <v>1.431471940982476e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>2.987952885113998e-09</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1.431471940982476e-09</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8917699482542987</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8917699482542987</v>
+      </c>
       <c r="L10" t="n">
-        <v>48.39341297254556</v>
+        <v>45.17346580111994</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[34.835517956501185, 61.95130798858994]</t>
+          <t>[32.59883591434391, 57.74809568789597]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.346412867979211e-09</v>
+        <v>4.565035904846582e-09</v>
       </c>
       <c r="O10" t="n">
-        <v>5.346412867979211e-09</v>
+        <v>4.565035904846582e-09</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.446579199851156</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.7484739893853103, -1.1446844103170015]</t>
+          <t>[-1.8113687372049245, -1.1824212590087715]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.564082197091921e-12</v>
+        <v>1.915578806688245e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>1.564082197091921e-12</v>
+        <v>1.915578806688245e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>59.85229225797099</v>
+        <v>51.23545158702879</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.35729623166549, 68.3472882842765]</t>
+          <t>[43.56133655021826, 58.909566623839325]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.164064064064078</v>
+        <v>5.241241241241241</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.086346346346357</v>
+        <v>4.140140140140143</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.2417817817818</v>
+        <v>6.342342342342339</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1363,73 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.43000000000007</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.201630071667736e-06</v>
+        <v>4.632148339345221e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>1.201630071667736e-06</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>4.632148339345221e-07</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1167214205156615</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1167214205156615</v>
+      </c>
       <c r="L11" t="n">
-        <v>38.15252987450112</v>
+        <v>49.70578163377016</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[20.84570437805278, 55.45935537094946]</t>
+          <t>[28.948159214824216, 70.4634040527161]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.778024508518165e-05</v>
+        <v>1.654830015906938e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>5.778024508518165e-05</v>
+        <v>1.654830015906938e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.9434212172942322</v>
+        <v>-1.081789662497386</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3836844520315408, -0.5031579825569237]</t>
+          <t>[-1.522052897234695, -0.6415264277600778]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.607791751802374e-05</v>
+        <v>1.090183179841553e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>8.607791751802374e-05</v>
+        <v>1.090183179841553e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>51.90873006087475</v>
+        <v>59.08299272464507</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.029174032602356, 60.78828608914715]</t>
+          <t>[48.0766847925771, 70.08930065671304]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>3.367867867867879</v>
+        <v>3.787787787787789</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.796196196196202</v>
+        <v>2.246246246246246</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.939539539539556</v>
+        <v>5.329329329329331</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_6_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_6_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.74000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5.366994626498922e-10</v>
+        <v>2.183721639070768e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>5.366994626498922e-10</v>
+        <v>2.183721639070768e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>50.50856290803106</v>
+        <v>37.90012113121995</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[35.40122319409092, 65.6159026219712]</t>
+          <t>[23.968695015781854, 51.83154724665804]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.531835985308817e-08</v>
+        <v>1.837710118524072e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>2.531835985308817e-08</v>
+        <v>1.837710118524072e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.301921279866041</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9622896416401163, 1.641552918091965]</t>
+          <t>[1.2893423303021168, 2.144710900648888]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>8.815312924070895e-10</v>
+        <v>2.584563674190576e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>8.815312924070895e-10</v>
+        <v>2.584563674190576e-10</v>
       </c>
       <c r="T2" t="n">
-        <v>52.33142187738425</v>
+        <v>46.90811790881556</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.63697616769609, 61.02586758707241]</t>
+          <t>[38.40824394190043, 55.40799187573068]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.709743457922741e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.709743457922741e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>20.40648648648695</v>
+        <v>18.88762762762808</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.01513513513556</v>
+        <v>17.11853853853895</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.79783783783833</v>
+        <v>20.65671671671721</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.74000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.100215410529628e-07</v>
+        <v>2.880824356843448e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>4.100215410529628e-07</v>
+        <v>2.880824356843448e-09</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>38.54328815858999</v>
+        <v>43.56133798073172</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[22.366430341809313, 54.72014597537066]</t>
+          <t>[29.398171504746472, 57.72450445671697]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.791740721079904e-05</v>
+        <v>1.603865975585705e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>1.791740721079904e-05</v>
+        <v>1.603865975585705e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9622896416401163</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5346053564667317, 1.389973926813501]</t>
+          <t>[0.8365001460008861, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.294577757657514e-05</v>
+        <v>2.035159507585149e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>4.294577757657514e-05</v>
+        <v>2.035159507585149e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>50.81910133076473</v>
+        <v>53.09856206590385</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.34382218729834, 59.29438047423112]</t>
+          <t>[45.1745140979867, 61.022610033820996]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21.79783783783834</v>
+        <v>21.07297297297348</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.04576576576623</v>
+        <v>19.61607607607655</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.54990990991045</v>
+        <v>22.52986986987041</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.74000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.898565914539631e-10</v>
+        <v>8.962697251035934e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>3.898565914539631e-10</v>
+        <v>8.962697251035934e-10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.25333608828575</v>
+        <v>53.87880614251616</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[33.41082122160226, 63.09585095496924]</t>
+          <t>[36.45435702897761, 71.30325525605471]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.784588170103632e-08</v>
+        <v>1.431770140225552e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>4.784588170103632e-08</v>
+        <v>1.431770140225552e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5471843060306538</v>
+        <v>0.735868549489501</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.2201316173686534, 0.8742369946926543]</t>
+          <t>[0.40881586082750054, 1.0629212381515014]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.001552041633658074</v>
+        <v>4.294577757657514e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001552041633658074</v>
+        <v>4.294577757657514e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>48.75694948006571</v>
+        <v>58.24129710073569</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[40.94785249554242, 56.56604646458901]</t>
+          <t>[49.21024789803305, 67.27234630343833]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.49837837837892</v>
+        <v>22.94612612612668</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.15855855855906</v>
+        <v>21.59329329329381</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.83819819819877</v>
+        <v>24.29895895895955</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.74000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.153034861507308e-09</v>
+        <v>1.25640153836315e-09</v>
       </c>
       <c r="I5" t="n">
-        <v>2.153034861507308e-09</v>
+        <v>1.25640153836315e-09</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.18317798870523</v>
+        <v>50.04021520209188</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[36.31808481093984, 64.04827116647063]</t>
+          <t>[35.623750408974516, 64.45667999520924]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.794959901881612e-09</v>
+        <v>1.050623921194926e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>3.794959901881612e-09</v>
+        <v>1.050623921194926e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05660527303765317</v>
+        <v>0.3081842643161163</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.24528951649650121, 0.35850006257180755]</t>
+          <t>[-0.006289474781961069, 0.6226580034141938]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.707470188884729</v>
+        <v>0.05456051722926025</v>
       </c>
       <c r="S5" t="n">
-        <v>0.707470188884729</v>
+        <v>0.05456051722926025</v>
       </c>
       <c r="T5" t="n">
-        <v>57.84067803251938</v>
+        <v>57.40345460738822</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.21244154028728, 66.46891452475148]</t>
+          <t>[49.05092553206791, 65.75598368270853]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>25.50810810810869</v>
+        <v>24.71521521521581</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.2713513513519</v>
+        <v>23.41441441441497</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.74486486486548</v>
+        <v>26.01601601601664</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.74000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.28864356963021e-08</v>
+        <v>8.243726812295904e-10</v>
       </c>
       <c r="I6" t="n">
-        <v>1.28864356963021e-08</v>
+        <v>8.243726812295904e-10</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>41.85761250404533</v>
+        <v>42.67011240527511</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[27.968237317806462, 55.74698769028419]</t>
+          <t>[29.719201578199844, 55.62102323235038]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.459546188937622e-07</v>
+        <v>3.538576032191543e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>2.459546188937622e-07</v>
+        <v>3.538576032191543e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3018947895341544</v>
+        <v>-0.3144737390980774</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.6666843268879239, 0.06289474781961513]</t>
+          <t>[-0.6415264277600778, 0.012578949563923025]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1024917190848524</v>
+        <v>0.05908410662989771</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1024917190848524</v>
+        <v>0.05908410662989771</v>
       </c>
       <c r="T6" t="n">
-        <v>55.18228734647997</v>
+        <v>50.89463762988724</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.313726850762464, 63.050847842197484]</t>
+          <t>[43.657083742861055, 58.13219151691343]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.236756756756787</v>
+        <v>1.300800800800832</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.2576576576576606</v>
+        <v>-0.05203203203203266</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.731171171171234</v>
+        <v>2.653633633633698</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.74000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.085632081071935e-11</v>
+        <v>1.812402450340755e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>7.085632081071935e-11</v>
+        <v>1.812402450340755e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.91236623575336</v>
+        <v>48.70792812490994</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[35.33042117092147, 66.49431130058525]</t>
+          <t>[31.728952960620745, 65.68690328919914]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.273584752745307e-08</v>
+        <v>6.663705218734606e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>4.273584752745307e-08</v>
+        <v>6.663705218734606e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.8050527720910781</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1069475616252324, -0.5031579825569237]</t>
+          <t>[-1.3207897042119248, -0.6163685286322318]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.650989207486631e-06</v>
+        <v>1.502353802695922e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>2.650989207486631e-06</v>
+        <v>1.502353802695922e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>57.24190545364622</v>
+        <v>60.44705513458188</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.060036269055985, 65.42377463823645]</t>
+          <t>[51.513359078109424, 69.38075119105434]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.298018018018091</v>
+        <v>4.006466466466563</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.061261261261306</v>
+        <v>2.549569569569631</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.534774774774876</v>
+        <v>5.463363363363494</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.74000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.684893168376391e-09</v>
+        <v>3.362841853760123e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>3.684893168376391e-09</v>
+        <v>3.362841853760123e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.87115152518768</v>
+        <v>34.21564828330747</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[28.773134972890993, 58.969168077484376]</t>
+          <t>[18.276258039990694, 50.15503852662424]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.167211321044363e-07</v>
+        <v>8.402249390537797e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>5.167211321044363e-07</v>
+        <v>8.402249390537797e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.144684410317002</v>
+        <v>-1.157263359880925</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.522052897234694, -0.767315923399309]</t>
+          <t>[-1.6730002920017712, -0.6415264277600778]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.147505147043205e-07</v>
+        <v>4.469172297616453e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>2.147505147043205e-07</v>
+        <v>4.469172297616453e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>59.29321709967545</v>
+        <v>53.94754291517363</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[51.031285072570014, 67.55514912678088]</t>
+          <t>[45.18663697144066, 62.70844885890659]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>4.689369369369476</v>
+        <v>4.786946946947062</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.143423423423497</v>
+        <v>2.653633633633698</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.235315315315456</v>
+        <v>6.920260260260426</v>
       </c>
     </row>
     <row r="9">
@@ -1183,73 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>23.10000000000017</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.918232487938212e-11</v>
+        <v>3.232802747721308e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>4.918232487938212e-11</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2987894557045725</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2987894557045725</v>
-      </c>
+        <v>3.232802747721308e-08</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>50.71023789241919</v>
+        <v>46.03790980929305</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[35.91169345815594, 65.50878232668244]</t>
+          <t>[31.50784625251373, 60.567973366072366]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.425450379954896e-08</v>
+        <v>8.457272770989732e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.425450379954896e-08</v>
+        <v>8.457272770989732e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.138421425866927</v>
+        <v>-1.647842392873925</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.4403162154010807, -1.8365266363327728]</t>
+          <t>[-2.0000529806637726, -1.2956318050840778]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.234079670733081e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.234079670733081e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>53.70655093573375</v>
+        <v>52.06056702478882</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.046334059799044, 61.36676781166846]</t>
+          <t>[43.125584761818956, 60.99554928775868]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>7.487487487487488</v>
+        <v>6.058258258258302</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.430430430430432</v>
+        <v>4.763363363363395</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.544544544544545</v>
+        <v>7.353153153153209</v>
       </c>
     </row>
     <row r="10">
@@ -1273,73 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>23.10000000000017</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.431471940982476e-09</v>
+        <v>2.327461179341128e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>1.431471940982476e-09</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8917699482542987</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.8917699482542987</v>
-      </c>
+        <v>2.327461179341128e-08</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>45.17346580111994</v>
+        <v>47.70692855238275</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[32.59883591434391, 57.74809568789597]</t>
+          <t>[31.39518788034441, 64.01866922442109]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.565035904846582e-09</v>
+        <v>4.536397357757238e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>4.565035904846582e-09</v>
+        <v>4.536397357757238e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.496894998106848</v>
+        <v>-1.345947603339772</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.8113687372049245, -1.1824212590087715]</t>
+          <t>[-1.7358950398213882, -0.9560001668581553]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.915578806688245e-12</v>
+        <v>1.200892318919955e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>1.915578806688245e-12</v>
+        <v>1.200892318919955e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>51.23545158702879</v>
+        <v>53.45816072242514</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.56133655021826, 58.909566623839325]</t>
+          <t>[44.29169065093424, 62.62463079391604]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="X10" t="n">
-        <v>5.241241241241241</v>
+        <v>4.948348348348386</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.140140140140143</v>
+        <v>3.51471471471474</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.342342342342339</v>
+        <v>6.381981981982031</v>
       </c>
     </row>
     <row r="11">
@@ -1363,73 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>23.10000000000017</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.632148339345221e-07</v>
+        <v>8.823582942074637e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>4.632148339345221e-07</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1167214205156615</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1167214205156615</v>
-      </c>
+        <v>8.823582942074637e-08</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>49.70578163377016</v>
+        <v>42.89401214494679</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[28.948159214824216, 70.4634040527161]</t>
+          <t>[26.75848054463201, 59.02954374526156]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.654830015906938e-05</v>
+        <v>2.805019333917969e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>1.654830015906938e-05</v>
+        <v>2.805019333917969e-06</v>
       </c>
       <c r="P11" t="n">
         <v>-1.081789662497386</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.522052897234695, -0.6415264277600778]</t>
+          <t>[-1.4843160485429259, -0.6792632764518469]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.090183179841553e-05</v>
+        <v>2.300678604738593e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>1.090183179841553e-05</v>
+        <v>2.300678604738593e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>59.08299272464507</v>
+        <v>42.94831462209154</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.0766847925771, 70.08930065671304]</t>
+          <t>[34.173849066985674, 51.7227801771974]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>8.113509863960644e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>8.113509863960644e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>3.787787787787789</v>
+        <v>3.977177177177207</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.246246246246246</v>
+        <v>2.497297297297315</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.329329329329331</v>
+        <v>5.457057057057099</v>
       </c>
     </row>
   </sheetData>
